--- a/04-logistic-regression/lectures/01_excel-logistic-regression.xlsx
+++ b/04-logistic-regression/lectures/01_excel-logistic-regression.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cpepe-ranney/working/sdss-statistical-modeling-and-inference/04-logistic-regression/lectures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cpepe-ranney/working/data730-lecture-notebooks/04-logistic-regression/lectures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA5C10F-D053-D944-801B-9A3098050BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69753850-3218-4D41-85B9-346CADB17843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{A86BEABA-6EEA-F848-B108-13031AF20221}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A86BEABA-6EEA-F848-B108-13031AF20221}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
   </definedNames>
@@ -96,13 +96,13 @@
     <t>prediction_is_gentoo</t>
   </si>
   <si>
-    <t>loss</t>
-  </si>
-  <si>
     <t xml:space="preserve">coef. blll length = </t>
   </si>
   <si>
-    <t xml:space="preserve">cross entropy = </t>
+    <t>log likelihood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum log likelihood = </t>
   </si>
 </sst>
 </file>
@@ -210,7 +210,7 @@
     <tableColumn id="3" xr3:uid="{D8C9B1D9-E16D-C141-9A6A-E4EB6F32C231}" name="bill_length_mm"/>
     <tableColumn id="4" xr3:uid="{2AF59E36-4467-1049-99CA-207853576CB3}" name="is_gentoo"/>
     <tableColumn id="5" xr3:uid="{552CB739-3C01-5D48-AA91-8332357D76C0}" name="prediction_is_gentoo"/>
-    <tableColumn id="6" xr3:uid="{5897C363-423C-7547-82BE-F686F29D2001}" name="loss"/>
+    <tableColumn id="6" xr3:uid="{5897C363-423C-7547-82BE-F686F29D2001}" name="log likelihood"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -547,7 +547,7 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -566,11 +566,11 @@
       </c>
       <c r="E2">
         <f>1 / (1 + EXP(-1 * ($J$7*C2 + $J$8)))</f>
-        <v>7.1305812178950236E-3</v>
+        <v>7.1314632000098145E-3</v>
       </c>
       <c r="F2">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.1078657357131527E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.1082515267632886E-3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -589,11 +589,11 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="0">1 / (1 + EXP(-1 * ($J$7*C3 + $J$8)))</f>
-        <v>1.1537867639408613E-2</v>
+        <v>1.1539246431953068E-2</v>
       </c>
       <c r="F3">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.0399637016983381E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.0405694936571602E-3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -612,11 +612,11 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>2.9911775207175844E-2</v>
+        <v>2.9915069581826895E-2</v>
       </c>
       <c r="F4">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.3188766972588131E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.3190241819024845E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -635,11 +635,11 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>3.8946398589293217E-4</v>
+        <v>3.8952108649199492E-4</v>
       </c>
       <c r="F5">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.6917500589820795E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.6919981403591136E-4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -658,11 +658,11 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>9.0727910677874633E-3</v>
+        <v>9.0738945353053477E-3</v>
       </c>
       <c r="F6">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.9582465441304771E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.9587301620153219E-3</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>5</v>
@@ -684,17 +684,17 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>5.6017893171600606E-3</v>
+        <v>5.6024935248817995E-3</v>
       </c>
       <c r="F7">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.4396658338977015E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.4399733904004171E-3</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>1.2142263392331865</v>
+        <v>1.2142171355115086</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -713,17 +713,17 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>8.0437487211412924E-3</v>
+        <v>8.0447353932446963E-3</v>
       </c>
       <c r="F8">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.507481320776083E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.507913301987446E-3</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J8">
-        <v>-52.412456269345462</v>
+        <v>-52.411971833086646</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -742,11 +742,11 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>1.6579315712923952E-5</v>
+        <v>1.6582144161954501E-5</v>
       </c>
       <c r="F9">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>7.2003650166031246E-6</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-7.2015934167772057E-6</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -765,11 +765,11 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.1954544818191449</v>
+        <v>0.1954698740982749</v>
       </c>
       <c r="F10">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>9.4449380109944886E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-9.4457688957219829E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -788,11 +788,11 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>1.4793077319472782E-3</v>
+        <v>1.4795094250258187E-3</v>
       </c>
       <c r="F11">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>6.4293084864261787E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-6.4301857261327448E-4</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>7</v>
@@ -814,18 +814,18 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>1.4793077319472782E-3</v>
+        <v>1.4795094250258187E-3</v>
       </c>
       <c r="F12">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>6.4293084864261787E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-6.4301857261327448E-4</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J12">
         <f>SUM(F2:F275)</f>
-        <v>16.614161083024911</v>
+        <v>-16.614161079927463</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -844,11 +844,11 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>7.5316399408477452E-2</v>
+        <v>7.5323793361497346E-2</v>
       </c>
       <c r="F13">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.4006844583570547E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.401031730205771E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -867,11 +867,11 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>3.89825816053301E-3</v>
+        <v>3.8987597778667102E-3</v>
       </c>
       <c r="F14">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.6963004690650344E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.6965191713177682E-3</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -890,11 +890,11 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>3.0424712851354489E-5</v>
+        <v>3.0429763238501974E-5</v>
       </c>
       <c r="F15">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.3213485914090164E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.321567933613086E-5</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -913,11 +913,11 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>3.4494786758969054E-4</v>
+        <v>3.449987612040012E-4</v>
       </c>
       <c r="F16">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.4983479952175303E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.4985690996513051E-4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -936,11 +936,11 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>4.399317060829141E-3</v>
+        <v>4.3998788365664718E-3</v>
       </c>
       <c r="F17">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.9148141560401761E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.9150592102830807E-3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -959,11 +959,11 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>0.30835164089290562</v>
+        <v>0.30837153475079976</v>
       </c>
       <c r="F18">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>0.16011464906045614</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-0.16012714083730897</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -982,11 +982,11 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>2.3865084539841882E-5</v>
+        <v>2.3869090015318104E-5</v>
       </c>
       <c r="F19">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.0364598202325573E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.0366337799706493E-5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1005,11 +1005,11 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0.96899032381693484</v>
+        <v>0.96899215865200961</v>
       </c>
       <c r="F20">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.5085027688365922</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.508528466696814</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1028,11 +1028,11 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>1.4793077319472782E-3</v>
+        <v>1.4795094250258187E-3</v>
       </c>
       <c r="F21">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>6.4293084864261787E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-6.4301857261327448E-4</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1051,11 +1051,11 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>1.3103846954179408E-3</v>
+        <v>1.3105645918976725E-3</v>
       </c>
       <c r="F22">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.6946603371769338E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.6954426428537002E-4</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1074,11 +1074,11 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>1.4747112370042242E-4</v>
+        <v>1.4749383599267787E-4</v>
       </c>
       <c r="F23">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>6.4050618187559829E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-6.406048346571937E-5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1097,11 +1097,11 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>2.4020923890506066E-3</v>
+        <v>2.4024107713234459E-3</v>
       </c>
       <c r="F24">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.0444704296457873E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.0446090342731715E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1120,11 +1120,11 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>4.9644581118203539E-3</v>
+        <v>4.9650871469427418E-3</v>
       </c>
       <c r="F25">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.1614063193650043E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.1616808689237359E-3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1143,11 +1143,11 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>7.1177224298251006E-5</v>
+        <v>7.1188580357677426E-5</v>
       </c>
       <c r="F26">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.0912975912894596E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.0917908137929632E-5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1166,11 +1166,11 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>4.2498158590849031E-2</v>
+        <v>4.2502666082311964E-2</v>
       </c>
       <c r="F27">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.8860382149873116E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.8862426619337982E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1189,11 +1189,11 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>3.78226910961596E-2</v>
+        <v>3.7826755780900029E-2</v>
       </c>
       <c r="F28">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.6744889310455927E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.6746723976338966E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1212,11 +1212,11 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>1.669970397497284E-3</v>
+        <v>1.6701965079554157E-3</v>
       </c>
       <c r="F29">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>7.2586518409199243E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-7.2596354689034284E-4</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1235,11 +1235,11 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>3.78226910961596E-2</v>
+        <v>3.7826755780900029E-2</v>
       </c>
       <c r="F30">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.6744889310455927E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.6746723976338966E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1258,11 +1258,11 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>1.1537867639408613E-2</v>
+        <v>1.1539246431953068E-2</v>
       </c>
       <c r="F31">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.0399637016983381E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.0405694936571602E-3</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1281,11 +1281,11 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>7.1448311816532087E-4</v>
+        <v>7.1458455074971936E-4</v>
       </c>
       <c r="F32">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.1040697911500245E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.1045106222553695E-4</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1304,11 +1304,11 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>1.1537867639408613E-2</v>
+        <v>1.1539246431953068E-2</v>
       </c>
       <c r="F33">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.0399637016983381E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.0405694936571602E-3</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1327,11 +1327,11 @@
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>6.0052830115121844E-2</v>
+        <v>6.0058926853649101E-2</v>
       </c>
       <c r="F34">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.6896555413330341E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.6899372367912421E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1350,11 +1350,11 @@
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>2.7059477465028346E-4</v>
+        <v>2.7063519921281728E-4</v>
       </c>
       <c r="F35">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.1753372018500704E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.175512811016706E-4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1373,11 +1373,11 @@
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>8.0437487211412924E-3</v>
+        <v>8.0447353932446963E-3</v>
       </c>
       <c r="F36">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.507481320776083E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.507913301987446E-3</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1396,11 +1396,11 @@
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>4.9644581118203539E-3</v>
+        <v>4.9650871469427418E-3</v>
       </c>
       <c r="F37">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.1614063193650043E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.1616808689237359E-3</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1419,11 +1419,11 @@
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>0.23647475088185929</v>
+        <v>0.23649209162571216</v>
       </c>
       <c r="F38">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>0.11717659662803315</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-0.1171864601851285</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1442,11 +1442,11 @@
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>1.160728658717072E-3</v>
+        <v>1.1608891007231917E-3</v>
       </c>
       <c r="F39">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.0439083858155312E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.0446059863757124E-4</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1465,11 +1465,11 @@
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>1.6524510246995656E-2</v>
+        <v>1.6526430110232627E-2</v>
       </c>
       <c r="F40">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>7.2364591281348064E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-7.2373069243761232E-3</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1488,11 +1488,11 @@
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>3.0551843042624571E-4</v>
+        <v>3.0556378954526973E-4</v>
       </c>
       <c r="F41">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.3270524143480129E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.3272494667065373E-4</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1511,11 +1511,11 @@
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>5.3554091105215501E-2</v>
+        <v>5.3559612322059733E-2</v>
       </c>
       <c r="F42">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.3904201710530371E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.3906735231971364E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1534,11 +1534,11 @@
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>1.6650677185211149E-4</v>
+        <v>1.6653226212417891E-4</v>
       </c>
       <c r="F43">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>7.2318993183058956E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-7.2330065311258064E-5</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1557,11 +1557,11 @@
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>0.75674669833643704</v>
+        <v>0.75676115801040744</v>
       </c>
       <c r="F44">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>0.61394125636470664</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-0.61396707284170116</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1580,11 +1580,11 @@
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>5.6052181439453057E-4</v>
+        <v>5.6060243325773893E-4</v>
       </c>
       <c r="F45">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.4349978082450913E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.4353481278954945E-4</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1603,11 +1603,11 @@
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>1.300805322350037E-2</v>
+        <v>1.3009593575204748E-2</v>
       </c>
       <c r="F46">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.686390881322014E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.6870686647320654E-3</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1626,11 +1626,11 @@
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>7.5316399408477452E-2</v>
+        <v>7.5323793361497346E-2</v>
       </c>
       <c r="F47">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.4006844583570547E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.401031730205771E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1649,11 +1649,11 @@
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>1.0281468994032502E-3</v>
+        <v>1.0282899795652162E-3</v>
       </c>
       <c r="F48">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>4.4674822577285046E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-4.4681042865580238E-4</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1672,11 +1672,11 @@
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>1.6650677185211149E-4</v>
+        <v>1.6653226212417891E-4</v>
       </c>
       <c r="F49">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>7.2318993183058956E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-7.2330065311258064E-5</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1695,11 +1695,11 @@
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>0.25909413661128089</v>
+        <v>0.25911239645583733</v>
       </c>
       <c r="F50">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>0.13023696827968989</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-0.13024767172778656</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1718,11 +1718,11 @@
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>1.300805322350037E-2</v>
+        <v>1.3009593575204748E-2</v>
       </c>
       <c r="F51">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.686390881322014E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.6870686647320654E-3</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -1741,11 +1741,11 @@
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>2.3614880249777394E-2</v>
+        <v>2.3617540438458613E-2</v>
       </c>
       <c r="F52">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.0378847914836158E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.0380031163961469E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -1764,11 +1764,11 @@
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>4.9448252182900205E-5</v>
+        <v>4.9456278185316493E-5</v>
       </c>
       <c r="F53">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.1475634033450667E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.147911985439439E-5</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -1787,11 +1787,11 @@
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>0.1954544818191449</v>
+        <v>0.1954698740982749</v>
       </c>
       <c r="F54">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>9.4449380109944886E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-9.4457688957219829E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -1810,11 +1810,11 @@
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>2.6946031861917126E-5</v>
+        <v>2.695052962059081E-5</v>
       </c>
       <c r="F55">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.1702670617801041E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.1704624022187186E-5</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -1833,11 +1833,11 @@
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>0.10494151898649283</v>
+        <v>0.10495123182571088</v>
       </c>
       <c r="F56">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>4.8148587978253339E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-4.8153300804792597E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -1856,11 +1856,11 @@
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>6.3204206259526623E-3</v>
+        <v>6.3212088183199474E-3</v>
       </c>
       <c r="F57">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.7536350629544554E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.7539795479762817E-3</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -1879,11 +1879,11 @@
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>4.2498158590849031E-2</v>
+        <v>4.2502666082311964E-2</v>
       </c>
       <c r="F58">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.8860382149873116E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.8862426619337982E-2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -1902,11 +1902,11 @@
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>3.0551843042624571E-4</v>
+        <v>3.0556378954526973E-4</v>
       </c>
       <c r="F59">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.3270524143480129E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.3272494667065373E-4</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -1925,11 +1925,11 @@
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>1.160728658717072E-3</v>
+        <v>1.1608891007231917E-3</v>
       </c>
       <c r="F60">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.0439083858155312E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.0446059863757124E-4</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -1948,11 +1948,11 @@
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>1.1567897683400679E-4</v>
+        <v>1.1569700627105398E-4</v>
       </c>
       <c r="F61">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.0241647318408364E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.0249478309384544E-5</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -1971,11 +1971,11 @@
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>9.4071226792296611E-2</v>
+        <v>9.4080117727831689E-2</v>
       </c>
       <c r="F62">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>4.2905946494118399E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-4.2910208753253756E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -1994,11 +1994,11 @@
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>1.160728658717072E-3</v>
+        <v>1.1608891007231917E-3</v>
       </c>
       <c r="F63">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.0439083858155312E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.0446059863757124E-4</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -2017,11 +2017,11 @@
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>7.5316399408477452E-2</v>
+        <v>7.5323793361497346E-2</v>
       </c>
       <c r="F64">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.4006844583570547E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.401031730205771E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -2040,11 +2040,11 @@
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>2.7059477465028346E-4</v>
+        <v>2.7063519921281728E-4</v>
       </c>
       <c r="F65">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.1753372018500704E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.175512811016706E-4</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -2063,11 +2063,11 @@
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>0.13003599310389577</v>
+        <v>0.13004748283907591</v>
       </c>
       <c r="F66">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>6.0498715116747023E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-6.0504450942021754E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -2086,11 +2086,11 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" si="1">1 / (1 + EXP(-1 * ($J$7*C67 + $J$8)))</f>
-        <v>9.0740028403038671E-5</v>
+        <v>9.0754338310747816E-5</v>
       </c>
       <c r="F67">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.9409681668041744E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.9415896946012778E-5</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -2109,11 +2109,11 @@
       </c>
       <c r="E68">
         <f t="shared" si="1"/>
-        <v>7.5316399408477452E-2</v>
+        <v>7.5323793361497346E-2</v>
       </c>
       <c r="F68">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.4006844583570547E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.401031730205771E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -2132,11 +2132,11 @@
       </c>
       <c r="E69">
         <f t="shared" si="1"/>
-        <v>1.4747112370042242E-4</v>
+        <v>1.4749383599267787E-4</v>
       </c>
       <c r="F69">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>6.4050618187559829E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-6.406048346571937E-5</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -2155,11 +2155,11 @@
       </c>
       <c r="E70">
         <f t="shared" si="1"/>
-        <v>0.16005817515981691</v>
+        <v>0.16007158201990868</v>
       </c>
       <c r="F70">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>7.5750792540280443E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-7.5757724653498726E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -2178,11 +2178,11 @@
       </c>
       <c r="E71">
         <f t="shared" si="1"/>
-        <v>8.0014970178224843E-6</v>
+        <v>8.0029062869388134E-6</v>
       </c>
       <c r="F71">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.4750199045172665E-6</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.4756319471802869E-6</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -2201,11 +2201,11 @@
       </c>
       <c r="E72">
         <f t="shared" si="1"/>
-        <v>1.4662794823323166E-2</v>
+        <v>1.4664514911417509E-2</v>
       </c>
       <c r="F72">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>6.4151184506342938E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-6.4158765925332274E-3</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -2224,11 +2224,11 @@
       </c>
       <c r="E73">
         <f t="shared" si="1"/>
-        <v>1.300805322350037E-2</v>
+        <v>1.3009593575204748E-2</v>
       </c>
       <c r="F73">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.686390881322014E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.6870686647320654E-3</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -2247,11 +2247,11 @@
       </c>
       <c r="E74">
         <f t="shared" si="1"/>
-        <v>0.96080077373236439</v>
+        <v>0.96080314286284929</v>
       </c>
       <c r="F74">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.4067225051992529</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.4067487539671026</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -2270,11 +2270,11 @@
       </c>
       <c r="E75">
         <f t="shared" si="1"/>
-        <v>9.0740028403038671E-5</v>
+        <v>9.0754338310747816E-5</v>
       </c>
       <c r="F75">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.9409681668041744E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.9415896946012778E-5</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -2293,11 +2293,11 @@
       </c>
       <c r="E76">
         <f t="shared" si="1"/>
-        <v>0.39089088922011833</v>
+        <v>0.39091244108944606</v>
       </c>
       <c r="F76">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>0.21530490446863859</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-0.21532027121221545</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -2316,11 +2316,11 @@
       </c>
       <c r="E77">
         <f t="shared" si="1"/>
-        <v>6.0052830115121844E-2</v>
+        <v>6.0058926853649101E-2</v>
       </c>
       <c r="F77">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.6896555413330341E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.6899372367912421E-2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -2339,11 +2339,11 @@
       </c>
       <c r="E78">
         <f t="shared" si="1"/>
-        <v>7.1448311816532087E-4</v>
+        <v>7.1458455074971936E-4</v>
       </c>
       <c r="F78">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.1040697911500245E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.1045106222553695E-4</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -2362,11 +2362,11 @@
       </c>
       <c r="E79">
         <f t="shared" si="1"/>
-        <v>2.1226499729553699E-4</v>
+        <v>2.122971004362462E-4</v>
       </c>
       <c r="F79">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>9.2195302290660705E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-9.220924746781589E-5</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -2385,11 +2385,11 @@
       </c>
       <c r="E80">
         <f t="shared" si="1"/>
-        <v>0.21525636230735581</v>
+        <v>0.21527274127400542</v>
       </c>
       <c r="F80">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>0.10527219665522514</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-0.10528126123214937</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -2408,11 +2408,11 @@
       </c>
       <c r="E81">
         <f t="shared" si="1"/>
-        <v>3.0424712851354489E-5</v>
+        <v>3.0429763238501974E-5</v>
       </c>
       <c r="F81">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.3213485914090164E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.321567933613086E-5</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -2431,11 +2431,11 @@
       </c>
       <c r="E82">
         <f t="shared" si="1"/>
-        <v>0.42015276337731988</v>
+        <v>0.42017459145278185</v>
       </c>
       <c r="F82">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>0.23668640821359968</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-0.23670275733205881</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -2454,11 +2454,11 @@
       </c>
       <c r="E83">
         <f t="shared" si="1"/>
-        <v>3.8946398589293217E-4</v>
+        <v>3.8952108649199492E-4</v>
       </c>
       <c r="F83">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.6917500589820795E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.6919981403591136E-4</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -2477,11 +2477,11 @@
       </c>
       <c r="E84">
         <f t="shared" si="1"/>
-        <v>5.5831764426626065E-5</v>
+        <v>5.5840775094912319E-5</v>
       </c>
       <c r="F84">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.4248104118905083E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.4252017620951201E-5</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -2500,11 +2500,11 @@
       </c>
       <c r="E85">
         <f t="shared" si="1"/>
-        <v>8.0664991729426626E-4</v>
+        <v>8.0676368197795615E-4</v>
       </c>
       <c r="F85">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.5046497819262812E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.5051442545642694E-4</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -2523,11 +2523,11 @@
       </c>
       <c r="E86">
         <f t="shared" si="1"/>
-        <v>9.4071226792296611E-2</v>
+        <v>9.4080117727831689E-2</v>
       </c>
       <c r="F86">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>4.2905946494118399E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-4.2910208753253756E-2</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -2546,11 +2546,11 @@
       </c>
       <c r="E87">
         <f t="shared" si="1"/>
-        <v>2.3966226708370348E-4</v>
+        <v>2.3969829225877322E-4</v>
       </c>
       <c r="F87">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.0409647461174995E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.0411212389731555E-4</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -2569,11 +2569,11 @@
       </c>
       <c r="E88">
         <f t="shared" si="1"/>
-        <v>4.9646332799329663E-4</v>
+        <v>4.9653519478487257E-4</v>
       </c>
       <c r="F88">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.1566482308347116E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.1569604993861819E-4</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -2592,11 +2592,11 @@
       </c>
       <c r="E89">
         <f t="shared" si="1"/>
-        <v>2.7113665054345859E-3</v>
+        <v>2.711723279595314E-3</v>
       </c>
       <c r="F89">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.1791307629023559E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.1792861292344483E-3</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -2615,11 +2615,11 @@
       </c>
       <c r="E90">
         <f t="shared" si="1"/>
-        <v>5.6017893171600606E-3</v>
+        <v>5.6024935248817995E-3</v>
       </c>
       <c r="F90">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.4396658338977015E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.4399733904004171E-3</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -2638,11 +2638,11 @@
       </c>
       <c r="E91">
         <f t="shared" si="1"/>
-        <v>1.1567897683400679E-4</v>
+        <v>1.1569700627105398E-4</v>
       </c>
       <c r="F91">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.0241647318408364E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.0249478309384544E-5</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -2661,11 +2661,11 @@
       </c>
       <c r="E92">
         <f t="shared" si="1"/>
-        <v>7.5316399408477452E-2</v>
+        <v>7.5323793361497346E-2</v>
       </c>
       <c r="F92">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.4006844583570547E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.401031730205771E-2</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -2684,11 +2684,11 @@
       </c>
       <c r="E93">
         <f t="shared" si="1"/>
-        <v>1.4683657472489769E-5</v>
+        <v>1.4686176041485241E-5</v>
       </c>
       <c r="F93">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>6.3770782339866227E-6</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-6.37817205067691E-6</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -2707,11 +2707,11 @@
       </c>
       <c r="E94">
         <f t="shared" si="1"/>
-        <v>1.300805322350037E-2</v>
+        <v>1.3009593575204748E-2</v>
       </c>
       <c r="F94">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.686390881322014E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.6870686647320654E-3</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -2730,11 +2730,11 @@
       </c>
       <c r="E95">
         <f t="shared" si="1"/>
-        <v>2.1226499729553699E-4</v>
+        <v>2.122971004362462E-4</v>
       </c>
       <c r="F95">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>9.2195302290660705E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-9.220924746781589E-5</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -2753,11 +2753,11 @@
       </c>
       <c r="E96">
         <f t="shared" si="1"/>
-        <v>5.3554091105215501E-2</v>
+        <v>5.3559612322059733E-2</v>
       </c>
       <c r="F96">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.3904201710530371E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.3906735231971364E-2</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -2776,11 +2776,11 @@
       </c>
       <c r="E97">
         <f t="shared" si="1"/>
-        <v>2.1280205882872605E-3</v>
+        <v>2.1283046762251741E-3</v>
       </c>
       <c r="F97">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>9.2517234127132341E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-9.252959822232047E-4</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -2799,11 +2799,11 @@
       </c>
       <c r="E98">
         <f t="shared" si="1"/>
-        <v>2.9911775207175844E-2</v>
+        <v>2.9915069581826895E-2</v>
       </c>
       <c r="F98">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.3188766972588131E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.3190241819024845E-2</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -2822,11 +2822,11 @@
       </c>
       <c r="E99">
         <f t="shared" si="1"/>
-        <v>4.923113689802985E-6</v>
+        <v>4.9239989067506286E-6</v>
       </c>
       <c r="F99">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.1380863722989667E-6</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.1384708190066747E-6</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -2845,11 +2845,11 @@
       </c>
       <c r="E100">
         <f t="shared" si="1"/>
-        <v>0.51052883971458851</v>
+        <v>0.5105505389390449</v>
       </c>
       <c r="F100">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>0.31027289180340428</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-0.31029214536337435</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -2868,11 +2868,11 @@
       </c>
       <c r="E101">
         <f t="shared" si="1"/>
-        <v>4.9448252182900205E-5</v>
+        <v>4.9456278185316493E-5</v>
       </c>
       <c r="F101">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.1475634033450667E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.147911985439439E-5</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -2891,11 +2891,11 @@
       </c>
       <c r="E102">
         <f t="shared" si="1"/>
-        <v>6.7284121269520047E-2</v>
+        <v>6.7290841827407341E-2</v>
       </c>
       <c r="F102">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.0250629663298924E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.0253758924617919E-2</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -2914,11 +2914,11 @@
       </c>
       <c r="E103">
         <f t="shared" si="1"/>
-        <v>1.3103846954179408E-3</v>
+        <v>1.3105645918976725E-3</v>
       </c>
       <c r="F103">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.6946603371769338E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.6954426428537002E-4</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -2937,11 +2937,11 @@
       </c>
       <c r="E104">
         <f t="shared" si="1"/>
-        <v>1.4793077319472782E-3</v>
+        <v>1.4795094250258187E-3</v>
       </c>
       <c r="F104">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>6.4293084864261787E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-6.4301857261327448E-4</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -2960,11 +2960,11 @@
       </c>
       <c r="E105">
         <f t="shared" si="1"/>
-        <v>1.669970397497284E-3</v>
+        <v>1.6701965079554157E-3</v>
       </c>
       <c r="F105">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>7.2586518409199243E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-7.2596354689034284E-4</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E106">
         <f t="shared" si="1"/>
-        <v>1.4662794823323166E-2</v>
+        <v>1.4664514911417509E-2</v>
       </c>
       <c r="F106">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>6.4151184506342938E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-6.4158765925332274E-3</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -3006,11 +3006,11 @@
       </c>
       <c r="E107">
         <f t="shared" si="1"/>
-        <v>3.89825816053301E-3</v>
+        <v>3.8987597778667102E-3</v>
       </c>
       <c r="F107">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.6963004690650344E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.6965191713177682E-3</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -3029,11 +3029,11 @@
       </c>
       <c r="E108">
         <f t="shared" si="1"/>
-        <v>2.4020923890506066E-3</v>
+        <v>2.4024107713234459E-3</v>
       </c>
       <c r="F108">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.0444704296457873E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.0446090342731715E-3</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -3052,11 +3052,11 @@
       </c>
       <c r="E109">
         <f t="shared" si="1"/>
-        <v>2.1280205882872605E-3</v>
+        <v>2.1283046762251741E-3</v>
       </c>
       <c r="F109">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>9.2517234127132341E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-9.252959822232047E-4</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -3075,11 +3075,11 @@
       </c>
       <c r="E110">
         <f t="shared" si="1"/>
-        <v>0.51052883971458851</v>
+        <v>0.5105505389390449</v>
       </c>
       <c r="F110">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>0.31027289180340428</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-0.31029214536337435</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -3098,11 +3098,11 @@
       </c>
       <c r="E111">
         <f t="shared" si="1"/>
-        <v>2.1280205882872605E-3</v>
+        <v>2.1283046762251741E-3</v>
       </c>
       <c r="F111">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>9.2517234127132341E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-9.252959822232047E-4</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -3121,11 +3121,11 @@
       </c>
       <c r="E112">
         <f t="shared" si="1"/>
-        <v>0.95055874652679107</v>
+        <v>0.95056178931973156</v>
       </c>
       <c r="F112">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.3059105272073257</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.3059372560775793</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -3144,11 +3144,11 @@
       </c>
       <c r="E113">
         <f t="shared" si="1"/>
-        <v>1.4662794823323166E-2</v>
+        <v>1.4664514911417509E-2</v>
       </c>
       <c r="F113">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>6.4151184506342938E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-6.4158765925332274E-3</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -3167,11 +3167,11 @@
       </c>
       <c r="E114">
         <f t="shared" si="1"/>
-        <v>0.23647475088185929</v>
+        <v>0.23649209162571216</v>
       </c>
       <c r="F114">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>0.11717659662803315</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-0.1171864601851285</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -3190,11 +3190,11 @@
       </c>
       <c r="E115">
         <f t="shared" si="1"/>
-        <v>1.300805322350037E-2</v>
+        <v>1.3009593575204748E-2</v>
       </c>
       <c r="F115">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.686390881322014E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.6870686647320654E-3</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -3213,11 +3213,11 @@
       </c>
       <c r="E116">
         <f t="shared" si="1"/>
-        <v>0.36239329199333686</v>
+        <v>0.36241442017344622</v>
       </c>
       <c r="F116">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>0.19544712254834029</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-0.1954615138713158</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -3236,11 +3236,11 @@
       </c>
       <c r="E117">
         <f t="shared" si="1"/>
-        <v>3.89825816053301E-3</v>
+        <v>3.8987597778667102E-3</v>
       </c>
       <c r="F117">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.6963004690650344E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.6965191713177682E-3</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -3259,11 +3259,11 @@
       </c>
       <c r="E118">
         <f t="shared" si="1"/>
-        <v>8.0664991729426626E-4</v>
+        <v>8.0676368197795615E-4</v>
       </c>
       <c r="F118">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.5046497819262812E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.5051442545642694E-4</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -3282,11 +3282,11 @@
       </c>
       <c r="E119">
         <f t="shared" si="1"/>
-        <v>1.1567897683400679E-4</v>
+        <v>1.1569700627105398E-4</v>
       </c>
       <c r="F119">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.0241647318408364E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.0249478309384544E-5</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -3305,11 +3305,11 @@
       </c>
       <c r="E120">
         <f t="shared" si="1"/>
-        <v>7.5316399408477452E-2</v>
+        <v>7.5323793361497346E-2</v>
       </c>
       <c r="F120">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.4006844583570547E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.401031730205771E-2</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -3328,11 +3328,11 @@
       </c>
       <c r="E121">
         <f t="shared" si="1"/>
-        <v>2.1226499729553699E-4</v>
+        <v>2.122971004362462E-4</v>
       </c>
       <c r="F121">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>9.2195302290660705E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-9.220924746781589E-5</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -3351,11 +3351,11 @@
       </c>
       <c r="E122">
         <f t="shared" si="1"/>
-        <v>1.3103846954179408E-3</v>
+        <v>1.3105645918976725E-3</v>
       </c>
       <c r="F122">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.6946603371769338E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.6954426428537002E-4</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -3374,11 +3374,11 @@
       </c>
       <c r="E123">
         <f t="shared" si="1"/>
-        <v>2.6582565692289114E-2</v>
+        <v>2.6585527266514183E-2</v>
       </c>
       <c r="F123">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.1700879629569319E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.1702200950982891E-2</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -3397,11 +3397,11 @@
       </c>
       <c r="E124">
         <f t="shared" si="1"/>
-        <v>0.10494151898649283</v>
+        <v>0.10495123182571088</v>
       </c>
       <c r="F124">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>4.8148587978253339E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-4.8153300804792597E-2</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -3420,11 +3420,11 @@
       </c>
       <c r="E125">
         <f t="shared" si="1"/>
-        <v>6.3039302957167224E-5</v>
+        <v>6.304941874885021E-5</v>
       </c>
       <c r="F125">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.7378484386668896E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.738287789614804E-5</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -3443,11 +3443,11 @@
       </c>
       <c r="E126">
         <f t="shared" si="1"/>
-        <v>4.2498158590849031E-2</v>
+        <v>4.2502666082311964E-2</v>
       </c>
       <c r="F126">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.8860382149873116E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.8862426619337982E-2</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -3466,11 +3466,11 @@
       </c>
       <c r="E127">
         <f t="shared" si="1"/>
-        <v>4.9644581118203539E-3</v>
+        <v>4.9650871469427418E-3</v>
       </c>
       <c r="F127">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.1614063193650043E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.1616808689237359E-3</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -3489,11 +3489,11 @@
       </c>
       <c r="E128">
         <f t="shared" si="1"/>
-        <v>0.11690582097911428</v>
+        <v>0.11691640149862378</v>
       </c>
       <c r="F128">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.399297790827022E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.3998181304323774E-2</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -3512,11 +3512,11 @@
       </c>
       <c r="E129">
         <f t="shared" si="1"/>
-        <v>6.3204206259526623E-3</v>
+        <v>6.3212088183199474E-3</v>
       </c>
       <c r="F129">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.7536350629544554E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.7539795479762817E-3</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -3535,11 +3535,11 @@
       </c>
       <c r="E130">
         <f t="shared" si="1"/>
-        <v>0.75674669833643704</v>
+        <v>0.75676115801040744</v>
       </c>
       <c r="F130">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>0.61394125636470664</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-0.61396707284170116</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -3558,11 +3558,11 @@
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E194" si="2">1 / (1 + EXP(-1 * ($J$7*C131 + $J$8)))</f>
-        <v>3.4540692260885235E-3</v>
+        <v>3.4545170530685203E-3</v>
       </c>
       <c r="F131">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.5026798817446504E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.5028750446809274E-3</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -3581,11 +3581,11 @@
       </c>
       <c r="E132">
         <f t="shared" si="2"/>
-        <v>0.48018512089333881</v>
+        <v>0.48020702543950783</v>
       </c>
       <c r="F132">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>0.28415129347403023</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-0.2841695946507628</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -3604,11 +3604,11 @@
       </c>
       <c r="E133">
         <f t="shared" si="2"/>
-        <v>4.3972245915152456E-4</v>
+        <v>4.3978652047974796E-4</v>
       </c>
       <c r="F133">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.9101103657821143E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.9103887029957431E-4</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -3627,11 +3627,11 @@
       </c>
       <c r="E134">
         <f t="shared" si="2"/>
-        <v>1.0281468994032502E-3</v>
+        <v>1.0282899795652162E-3</v>
       </c>
       <c r="F134">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>4.4674822577285046E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-4.4681042865580238E-4</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -3650,11 +3650,11 @@
       </c>
       <c r="E135">
         <f t="shared" si="2"/>
-        <v>2.1280205882872605E-3</v>
+        <v>2.1283046762251741E-3</v>
       </c>
       <c r="F135">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>9.2517234127132341E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-9.252959822232047E-4</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -3673,11 +3673,11 @@
       </c>
       <c r="E136">
         <f t="shared" si="2"/>
-        <v>7.5316399408477452E-2</v>
+        <v>7.5323793361497346E-2</v>
       </c>
       <c r="F136">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.4006844583570547E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.401031730205771E-2</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -3696,11 +3696,11 @@
       </c>
       <c r="E137">
         <f t="shared" si="2"/>
-        <v>1.0245354809329481E-4</v>
+        <v>1.0246961075969146E-4</v>
       </c>
       <c r="F137">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>4.449729007985308E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-4.4504266722081365E-5</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -3719,11 +3719,11 @@
       </c>
       <c r="E138">
         <f t="shared" si="2"/>
-        <v>2.6582565692289114E-2</v>
+        <v>2.6585527266514183E-2</v>
       </c>
       <c r="F138">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.1700879629569319E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.1702200950982891E-2</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -3742,11 +3742,11 @@
       </c>
       <c r="E139">
         <f t="shared" si="2"/>
-        <v>5.6052181439453057E-4</v>
+        <v>5.6060243325773893E-4</v>
       </c>
       <c r="F139">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.4349978082450913E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.4353481278954945E-4</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -3765,11 +3765,11 @@
       </c>
       <c r="E140">
         <f t="shared" si="2"/>
-        <v>1.4662794823323166E-2</v>
+        <v>1.4664514911417509E-2</v>
       </c>
       <c r="F140">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>6.4151184506342938E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-6.4158765925332274E-3</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -3788,11 +3788,11 @@
       </c>
       <c r="E141">
         <f t="shared" si="2"/>
-        <v>2.6582565692289114E-2</v>
+        <v>2.6585527266514183E-2</v>
       </c>
       <c r="F141">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.1700879629569319E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.1702200950982891E-2</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -3811,11 +3811,11 @@
       </c>
       <c r="E142">
         <f t="shared" si="2"/>
-        <v>4.2498158590849031E-2</v>
+        <v>4.2502666082311964E-2</v>
       </c>
       <c r="F142">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.8860382149873116E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.8862426619337982E-2</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -3834,11 +3834,11 @@
       </c>
       <c r="E143">
         <f t="shared" si="2"/>
-        <v>1.4618727454600781E-6</v>
+        <v>1.4621490604271939E-6</v>
       </c>
       <c r="F143">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>6.3488373063685846E-7</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-6.3500373287943391E-7</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -3857,11 +3857,11 @@
       </c>
       <c r="E144">
         <f t="shared" si="2"/>
-        <v>4.772291975802704E-2</v>
+        <v>4.7727911950985982E-2</v>
       </c>
       <c r="F144">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.1236668304786845E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.1238945045015764E-2</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -3880,11 +3880,11 @@
       </c>
       <c r="E145">
         <f t="shared" si="2"/>
-        <v>8.0664991729426626E-4</v>
+        <v>8.0676368197795615E-4</v>
       </c>
       <c r="F145">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.5046497819262812E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.5051442545642694E-4</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -3903,11 +3903,11 @@
       </c>
       <c r="E146">
         <f t="shared" si="2"/>
-        <v>6.3204206259526623E-3</v>
+        <v>6.3212088183199474E-3</v>
       </c>
       <c r="F146">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.7536350629544554E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.7539795479762817E-3</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -3926,11 +3926,11 @@
       </c>
       <c r="E147">
         <f t="shared" si="2"/>
-        <v>8.0437487211412924E-3</v>
+        <v>8.0447353932446963E-3</v>
       </c>
       <c r="F147">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.507481320776083E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.507913301987446E-3</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -3949,11 +3949,11 @@
       </c>
       <c r="E148">
         <f t="shared" si="2"/>
-        <v>3.4494786758969054E-4</v>
+        <v>3.449987612040012E-4</v>
       </c>
       <c r="F148">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.4983479952175303E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.4985690996513051E-4</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -3972,11 +3972,11 @@
       </c>
       <c r="E149">
         <f t="shared" si="2"/>
-        <v>1.6650677185211149E-4</v>
+        <v>1.6653226212417891E-4</v>
       </c>
       <c r="F149">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>7.2318993183058956E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-7.2330065311258064E-5</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -3995,11 +3995,11 @@
       </c>
       <c r="E150">
         <f t="shared" si="2"/>
-        <v>1.4793077319472782E-3</v>
+        <v>1.4795094250258187E-3</v>
       </c>
       <c r="F150">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>6.4293084864261787E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-6.4301857261327448E-4</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -4018,11 +4018,11 @@
       </c>
       <c r="E151">
         <f t="shared" si="2"/>
-        <v>1.6650677185211149E-4</v>
+        <v>1.6653226212417891E-4</v>
       </c>
       <c r="F151">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>7.2318993183058956E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-7.2330065311258064E-5</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -4041,11 +4041,11 @@
       </c>
       <c r="E152">
         <f t="shared" si="2"/>
-        <v>0.11690582097911428</v>
+        <v>0.11691640149862378</v>
       </c>
       <c r="F152">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.399297790827022E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.3998181304323774E-2</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -4064,11 +4064,11 @@
       </c>
       <c r="E153">
         <f t="shared" si="2"/>
-        <v>0.97243825894986957</v>
+        <v>0.97243987090753481</v>
       </c>
       <c r="F153">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.2137962905676321E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.2137243000086013E-2</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E154">
         <f t="shared" si="2"/>
-        <v>0.99975126176051454</v>
+        <v>0.99975126779088708</v>
       </c>
       <c r="F154">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.0803908212951323E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.0803646252040856E-4</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -4110,11 +4110,11 @@
       </c>
       <c r="E155">
         <f t="shared" si="2"/>
-        <v>0.99879535675813591</v>
+        <v>0.9987954003309657</v>
       </c>
       <c r="F155">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.2348528245094584E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.2346633618833324E-4</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -4133,11 +4133,11 @@
       </c>
       <c r="E156">
         <f t="shared" si="2"/>
-        <v>0.99975126176051454</v>
+        <v>0.99975126779088708</v>
       </c>
       <c r="F156">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.0803908212951323E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.0803646252040856E-4</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -4156,11 +4156,11 @@
       </c>
       <c r="E157">
         <f t="shared" si="2"/>
-        <v>0.99543480080079971</v>
+        <v>0.99543501137746382</v>
       </c>
       <c r="F157">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.9871802169124254E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.9870883452263116E-3</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -4179,11 +4179,11 @@
       </c>
       <c r="E158">
         <f t="shared" si="2"/>
-        <v>0.98286028182358154</v>
+        <v>0.98286123297380734</v>
       </c>
       <c r="F158">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>7.508214767788522E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-7.5077944851682041E-3</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -4202,11 +4202,11 @@
       </c>
       <c r="E159">
         <f t="shared" si="2"/>
-        <v>0.93781387115976633</v>
+        <v>0.93781775435194181</v>
       </c>
       <c r="F159">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.7883347920914063E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.7881549647829899E-2</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -4225,11 +4225,11 @@
       </c>
       <c r="E160">
         <f t="shared" si="2"/>
-        <v>0.98650586032401011</v>
+        <v>0.98650658744144248</v>
       </c>
       <c r="F160">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.9003304839439297E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.9000103814641561E-3</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -4248,11 +4248,11 @@
       </c>
       <c r="E161">
         <f t="shared" si="2"/>
-        <v>0.54079516732253796</v>
+        <v>0.54081650304143469</v>
       </c>
       <c r="F161">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>0.26696719801045204</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-0.26695006434734658</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -4271,11 +4271,11 @@
       </c>
       <c r="E162">
         <f t="shared" si="2"/>
-        <v>0.98803031771683714</v>
+        <v>0.9880309528030049</v>
       </c>
       <c r="F162">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.2297288788574333E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.229449723122428E-3</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -4294,11 +4294,11 @@
       </c>
       <c r="E163">
         <f t="shared" si="2"/>
-        <v>6.0052830115121844E-2</v>
+        <v>6.0058926853649101E-2</v>
       </c>
       <c r="F163">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.221466520743705</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.2214224321387408</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -4317,11 +4317,11 @@
       </c>
       <c r="E164">
         <f t="shared" si="2"/>
-        <v>0.99916282035707571</v>
+        <v>0.99916284834008284</v>
       </c>
       <c r="F164">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.6373477621191088E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.6372261316383961E-4</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -4340,11 +4340,11 @@
       </c>
       <c r="E165">
         <f t="shared" si="2"/>
-        <v>0.94452984546939955</v>
+        <v>0.94453328587025498</v>
       </c>
       <c r="F165">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.4784314589279269E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.4782732697089156E-2</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -4363,11 +4363,11 @@
       </c>
       <c r="E166">
         <f t="shared" si="2"/>
-        <v>0.99826688198369862</v>
+        <v>0.99826694941554894</v>
       </c>
       <c r="F166">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>7.5333659030518685E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-7.5330725418271257E-4</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -4386,11 +4386,11 @@
       </c>
       <c r="E167">
         <f t="shared" si="2"/>
-        <v>0.96080077373236439</v>
+        <v>0.96080314286284929</v>
       </c>
       <c r="F167">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.7366655867888686E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.7365584991328103E-2</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -4409,11 +4409,11 @@
       </c>
       <c r="E168">
         <f t="shared" si="2"/>
-        <v>0.99941825838293574</v>
+        <v>0.99941827622754253</v>
       </c>
       <c r="F168">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.5272069038531506E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.5271293606010897E-4</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -4432,11 +4432,11 @@
       </c>
       <c r="E169">
         <f t="shared" si="2"/>
-        <v>0.1954544818191449</v>
+        <v>0.1954698740982749</v>
       </c>
       <c r="F169">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>0.70895436663870615</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-0.70892016676452418</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -4455,11 +4455,11 @@
       </c>
       <c r="E170">
         <f t="shared" si="2"/>
-        <v>0.99934320369986662</v>
+        <v>0.99934322444930301</v>
       </c>
       <c r="F170">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.8533672319522372E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.8532770590706841E-4</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -4478,11 +4478,11 @@
       </c>
       <c r="E171">
         <f t="shared" si="2"/>
-        <v>0.97551250985555149</v>
+        <v>0.97551392455749419</v>
       </c>
       <c r="F171">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.0767156893348879E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.0766527073848314E-2</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -4501,11 +4501,11 @@
       </c>
       <c r="E172">
         <f t="shared" si="2"/>
-        <v>0.99879535675813591</v>
+        <v>0.9987954003309657</v>
       </c>
       <c r="F172">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.2348528245094584E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.2346633618833324E-4</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -4524,11 +4524,11 @@
       </c>
       <c r="E173">
         <f t="shared" si="2"/>
-        <v>0.99980488103298382</v>
+        <v>0.99980488540458667</v>
       </c>
       <c r="F173">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>8.4747358867248045E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-8.4745459933736173E-5</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -4547,11 +4547,11 @@
       </c>
       <c r="E174">
         <f t="shared" si="2"/>
-        <v>0.9128667709739049</v>
+        <v>0.91287228685998523</v>
       </c>
       <c r="F174">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.9592601275025979E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.9589977111537535E-2</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
@@ -4570,11 +4570,11 @@
       </c>
       <c r="E175">
         <f t="shared" si="2"/>
-        <v>0.98286028182358154</v>
+        <v>0.98286123297380734</v>
       </c>
       <c r="F175">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>7.508214767788522E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-7.5077944851682041E-3</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -4593,11 +4593,11 @@
       </c>
       <c r="E176">
         <f t="shared" si="2"/>
-        <v>0.97825152621886247</v>
+        <v>0.97825276662855731</v>
       </c>
       <c r="F176">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>9.5494658623314944E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-9.5489151831556398E-3</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
@@ -4616,11 +4616,11 @@
       </c>
       <c r="E177">
         <f t="shared" si="2"/>
-        <v>0.42015276337731988</v>
+        <v>0.42017459145278185</v>
       </c>
       <c r="F177">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>0.37659277572285743</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-0.37657021353284575</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -4639,11 +4639,11 @@
       </c>
       <c r="E178">
         <f t="shared" si="2"/>
-        <v>0.97243825894986957</v>
+        <v>0.97243987090753481</v>
       </c>
       <c r="F178">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.2137962905676321E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.2137243000086013E-2</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -4662,11 +4662,11 @@
       </c>
       <c r="E179">
         <f t="shared" si="2"/>
-        <v>0.83488004230452828</v>
+        <v>0.83489036336514455</v>
       </c>
       <c r="F179">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>7.837592057356968E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-7.8370551716081399E-2</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -4685,11 +4685,11 @@
       </c>
       <c r="E180">
         <f t="shared" si="2"/>
-        <v>0.996415562149922</v>
+        <v>0.99641572107630294</v>
       </c>
       <c r="F180">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.5594982139540319E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.5594289448183515E-3</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -4708,11 +4708,11 @@
       </c>
       <c r="E181">
         <f t="shared" si="2"/>
-        <v>0.9977915495745594</v>
+        <v>0.99779163951570027</v>
       </c>
       <c r="F181">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>9.6017847729341335E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-9.6013932989891867E-4</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -4731,11 +4731,11 @@
       </c>
       <c r="E182">
         <f t="shared" si="2"/>
-        <v>0.99975126176051454</v>
+        <v>0.99975126779088708</v>
       </c>
       <c r="F182">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.0803908212951323E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.0803646252040856E-4</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -4754,11 +4754,11 @@
       </c>
       <c r="E183">
         <f t="shared" si="2"/>
-        <v>0.99344173661955948</v>
+        <v>0.99344205651216566</v>
       </c>
       <c r="F183">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.8575983142131102E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.8574584695033726E-3</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
@@ -4777,11 +4777,11 @@
       </c>
       <c r="E184">
         <f t="shared" si="2"/>
-        <v>0.39089088922011833</v>
+        <v>0.39091244108944606</v>
       </c>
       <c r="F184">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>0.40794445186895434</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-0.40792050759150439</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
@@ -4800,11 +4800,11 @@
       </c>
       <c r="E185">
         <f t="shared" si="2"/>
-        <v>0.9128667709739049</v>
+        <v>0.91287228685998523</v>
       </c>
       <c r="F185">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.9592601275025979E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.9589977111537535E-2</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
@@ -4823,11 +4823,11 @@
       </c>
       <c r="E186">
         <f t="shared" si="2"/>
-        <v>0.99999999784491034</v>
+        <v>0.99999999784477223</v>
       </c>
       <c r="F186">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>9.3594354934402537E-10</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-9.3600353051257434E-10</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
@@ -4846,11 +4846,11 @@
       </c>
       <c r="E187">
         <f t="shared" si="2"/>
-        <v>0.99925847285528646</v>
+        <v>0.99925849696149727</v>
       </c>
       <c r="F187">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.221606073156839E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.2215013035252527E-4</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
@@ -4869,11 +4869,11 @@
       </c>
       <c r="E188">
         <f t="shared" si="2"/>
-        <v>0.99826688198369862</v>
+        <v>0.99826694941554894</v>
       </c>
       <c r="F188">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>7.5333659030518685E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-7.5330725418271257E-4</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
@@ -4892,11 +4892,11 @@
       </c>
       <c r="E189">
         <f t="shared" si="2"/>
-        <v>0.33483122244620256</v>
+        <v>0.33485179260337133</v>
       </c>
       <c r="F189">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>0.47517405156328663</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-0.4751473717594023</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
@@ -4915,11 +4915,11 @@
       </c>
       <c r="E190">
         <f t="shared" si="2"/>
-        <v>0.81745411290049885</v>
+        <v>0.81746542238258812</v>
       </c>
       <c r="F190">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>8.7536616739148643E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-8.7530608314197275E-2</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
@@ -4938,11 +4938,11 @@
       </c>
       <c r="E191">
         <f t="shared" si="2"/>
-        <v>0.73370506511503442</v>
+        <v>0.73372059231904008</v>
       </c>
       <c r="F191">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>0.13447848277350641</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-0.13446929201282271</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
@@ -4961,11 +4961,11 @@
       </c>
       <c r="E192">
         <f t="shared" si="2"/>
-        <v>0.99879535675813591</v>
+        <v>0.9987954003309657</v>
       </c>
       <c r="F192">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.2348528245094584E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.2346633618833324E-4</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
@@ -4984,11 +4984,11 @@
       </c>
       <c r="E193">
         <f t="shared" si="2"/>
-        <v>0.36239329199333686</v>
+        <v>0.36241442017344622</v>
       </c>
       <c r="F193">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>0.4408198498397079</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-0.4407945304291036</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
@@ -5007,11 +5007,11 @@
       </c>
       <c r="E194">
         <f t="shared" si="2"/>
-        <v>0.99959578936777249</v>
+        <v>0.99959580065332676</v>
       </c>
       <c r="F194">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.7558193553673978E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.7557703230088319E-4</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
@@ -5030,11 +5030,11 @@
       </c>
       <c r="E195">
         <f t="shared" ref="E195:E258" si="3">1 / (1 + EXP(-1 * ($J$7*C195 + $J$8)))</f>
-        <v>0.93034473417547958</v>
+        <v>0.93034910877538335</v>
       </c>
       <c r="F195">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.135609616815583E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.1354054064769571E-2</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
@@ -5053,11 +5053,11 @@
       </c>
       <c r="E196">
         <f t="shared" si="3"/>
-        <v>0.99959578936777249</v>
+        <v>0.99959580065332676</v>
       </c>
       <c r="F196">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.7558193553673978E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.7557703230088319E-4</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
@@ -5076,11 +5076,11 @@
       </c>
       <c r="E197">
         <f t="shared" si="3"/>
-        <v>0.99986444179183409</v>
+        <v>0.99986444445493716</v>
       </c>
       <c r="F197">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.8876172447532244E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.8875015719761187E-5</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
@@ -5099,11 +5099,11 @@
       </c>
       <c r="E198">
         <f t="shared" si="3"/>
-        <v>0.62897267957919767</v>
+        <v>0.62899208468994483</v>
       </c>
       <c r="F198">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>0.20136821841114416</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-0.20135481973296454</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
@@ -5122,11 +5122,11 @@
       </c>
       <c r="E199">
         <f t="shared" si="3"/>
-        <v>0.94452984546939955</v>
+        <v>0.94453328587025498</v>
       </c>
       <c r="F199">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.4784314589279269E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.4782732697089156E-2</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
@@ -5145,11 +5145,11 @@
       </c>
       <c r="E200">
         <f t="shared" si="3"/>
-        <v>0.99986444179183409</v>
+        <v>0.99986444445493716</v>
       </c>
       <c r="F200">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.8876172447532244E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.8875015719761187E-5</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
@@ -5168,11 +5168,11 @@
       </c>
       <c r="E201">
         <f t="shared" si="3"/>
-        <v>0.89151461449553737</v>
+        <v>0.89152149945582981</v>
       </c>
       <c r="F201">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>4.9871533091268634E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-4.9868179148810879E-2</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E202">
         <f t="shared" si="3"/>
-        <v>0.92205304793187814</v>
+        <v>0.92205796579681398</v>
       </c>
       <c r="F202">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.5244092220394145E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.5241775872204166E-2</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
@@ -5214,11 +5214,11 @@
       </c>
       <c r="E203">
         <f t="shared" si="3"/>
-        <v>0.98479023703121127</v>
+        <v>0.98479106895296287</v>
       </c>
       <c r="F203">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>6.6562655443366207E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-6.6558986653202567E-3</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
@@ -5237,11 +5237,11 @@
       </c>
       <c r="E204">
         <f t="shared" si="3"/>
-        <v>0.99846474320683654</v>
+        <v>0.99846480154139206</v>
       </c>
       <c r="F204">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>6.6726589698956943E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-6.6724052366016681E-4</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
@@ -5260,11 +5260,11 @@
       </c>
       <c r="E205">
         <f t="shared" si="3"/>
-        <v>0.9128667709739049</v>
+        <v>0.91287228685998523</v>
       </c>
       <c r="F205">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.9592601275025979E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.9589977111537535E-2</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
@@ -5283,11 +5283,11 @@
       </c>
       <c r="E206">
         <f t="shared" si="3"/>
-        <v>0.99977969633197883</v>
+        <v>0.99977970147042772</v>
       </c>
       <c r="F206">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>9.5687207873126312E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-9.5684975781396182E-5</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
@@ -5306,11 +5306,11 @@
       </c>
       <c r="E207">
         <f t="shared" si="3"/>
-        <v>0.98286028182358154</v>
+        <v>0.98286123297380734</v>
       </c>
       <c r="F207">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>7.508214767788522E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-7.5077944851682041E-3</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
@@ -5329,11 +5329,11 @@
       </c>
       <c r="E208">
         <f t="shared" si="3"/>
-        <v>0.90271209503836092</v>
+        <v>0.90271826607687378</v>
       </c>
       <c r="F208">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>4.4450738582432286E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-4.4447769708050332E-2</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -5352,11 +5352,11 @@
       </c>
       <c r="E209">
         <f t="shared" si="3"/>
-        <v>0.68366308303364909</v>
+        <v>0.6836806682144092</v>
       </c>
       <c r="F209">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>0.16515787083514366</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-0.16514670005682133</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -5375,11 +5375,11 @@
       </c>
       <c r="E210">
         <f t="shared" si="3"/>
-        <v>0.94452984546939955</v>
+        <v>0.94453328587025498</v>
       </c>
       <c r="F210">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.4784314589279269E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.4782732697089156E-2</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
@@ -5398,11 +5398,11 @@
       </c>
       <c r="E211">
         <f t="shared" si="3"/>
-        <v>0.51052883971458851</v>
+        <v>0.5105505389390449</v>
       </c>
       <c r="F211">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>0.29197971963949426</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-0.29196126102865277</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -5421,11 +5421,11 @@
       </c>
       <c r="E212">
         <f t="shared" si="3"/>
-        <v>0.99984694363352555</v>
+        <v>0.9998469467811798</v>
       </c>
       <c r="F212">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>6.6476622844972895E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-6.64752556268426E-5</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
@@ -5444,11 +5444,11 @@
       </c>
       <c r="E213">
         <f t="shared" si="3"/>
-        <v>0.93034473417547958</v>
+        <v>0.93034910877538335</v>
       </c>
       <c r="F213">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.135609616815583E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.1354054064769571E-2</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
@@ -5467,11 +5467,11 @@
       </c>
       <c r="E214">
         <f t="shared" si="3"/>
-        <v>0.97551250985555149</v>
+        <v>0.97551392455749419</v>
       </c>
       <c r="F214">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.0767156893348879E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.0766527073848314E-2</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
@@ -5490,11 +5490,11 @@
       </c>
       <c r="E215">
         <f t="shared" si="3"/>
-        <v>0.95596293322791437</v>
+        <v>0.95596562009162611</v>
       </c>
       <c r="F215">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.9558946852212516E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.9557726210278369E-2</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -5513,11 +5513,11 @@
       </c>
       <c r="E216">
         <f t="shared" si="3"/>
-        <v>0.99999865623515105</v>
+        <v>0.99999865621455675</v>
       </c>
       <c r="F216">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.835900509780659E-7</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.8359899498268778E-7</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
@@ -5536,11 +5536,11 @@
       </c>
       <c r="E217">
         <f t="shared" si="3"/>
-        <v>0.96080077373236439</v>
+        <v>0.96080314286284929</v>
       </c>
       <c r="F217">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.7366655867888686E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.7365584991328103E-2</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
@@ -5559,11 +5559,11 @@
       </c>
       <c r="E218">
         <f t="shared" si="3"/>
-        <v>0.99968291242560681</v>
+        <v>0.99968292069598208</v>
       </c>
       <c r="F218">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.3773122142270337E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.3772762850510414E-4</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
@@ -5582,11 +5582,11 @@
       </c>
       <c r="E219">
         <f t="shared" si="3"/>
-        <v>0.97551250985555149</v>
+        <v>0.97551392455749419</v>
       </c>
       <c r="F219">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.0767156893348879E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.0766527073848314E-2</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
@@ -5605,11 +5605,11 @@
       </c>
       <c r="E220">
         <f t="shared" si="3"/>
-        <v>0.99954362877881453</v>
+        <v>0.99954364193985445</v>
       </c>
       <c r="F220">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.9824474309961454E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.9823902472293427E-4</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -5628,11 +5628,11 @@
       </c>
       <c r="E221">
         <f t="shared" si="3"/>
-        <v>0.60022183048425226</v>
+        <v>0.60024200442786357</v>
       </c>
       <c r="F221">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>0.22168821303240371</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-0.22167361628715468</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -5651,11 +5651,11 @@
       </c>
       <c r="E222">
         <f t="shared" si="3"/>
-        <v>0.99989366599948493</v>
+        <v>0.99989366789281697</v>
       </c>
       <c r="F222">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>4.6182725102869159E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-4.618190275176576E-5</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
@@ -5674,11 +5674,11 @@
       </c>
       <c r="E223">
         <f t="shared" si="3"/>
-        <v>0.99595467603119514</v>
+        <v>0.99595485901730807</v>
       </c>
       <c r="F223">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.7604250275385436E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.7603452348996596E-3</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
@@ -5697,11 +5697,11 @@
       </c>
       <c r="E224">
         <f t="shared" si="3"/>
-        <v>0.980690237886084</v>
+        <v>0.98069132452281749</v>
       </c>
       <c r="F224">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>8.4681477888914874E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-8.4676665767232599E-3</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
@@ -5720,11 +5720,11 @@
       </c>
       <c r="E225">
         <f t="shared" si="3"/>
-        <v>0.9977915495745594</v>
+        <v>0.99779163951570027</v>
       </c>
       <c r="F225">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>9.6017847729341335E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-9.6013932989891867E-4</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
@@ -5743,11 +5743,11 @@
       </c>
       <c r="E226">
         <f t="shared" si="3"/>
-        <v>0.98286028182358154</v>
+        <v>0.98286123297380734</v>
       </c>
       <c r="F226">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>7.508214767788522E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-7.5077944851682041E-3</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
@@ -5766,11 +5766,11 @@
       </c>
       <c r="E227">
         <f t="shared" si="3"/>
-        <v>0.980690237886084</v>
+        <v>0.98069132452281749</v>
       </c>
       <c r="F227">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>8.4681477888914874E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-8.4676665767232599E-3</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
@@ -5789,11 +5789,11 @@
       </c>
       <c r="E228">
         <f t="shared" si="3"/>
-        <v>0.99864004639877813</v>
+        <v>0.99864009683156429</v>
       </c>
       <c r="F228">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.9102231727152033E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.9100038476414052E-4</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
@@ -5812,11 +5812,11 @@
       </c>
       <c r="E229">
         <f t="shared" si="3"/>
-        <v>0.99484846061131249</v>
+        <v>0.99484870281052751</v>
       </c>
       <c r="F229">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.243067729123722E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.2429619986793739E-3</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
@@ -5835,11 +5835,11 @@
       </c>
       <c r="E230">
         <f t="shared" si="3"/>
-        <v>0.99993457297081823</v>
+        <v>0.99993457389497864</v>
       </c>
       <c r="F230">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.8415527322872405E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.8415125938842655E-5</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
@@ -5858,11 +5858,11 @@
       </c>
       <c r="E231">
         <f t="shared" si="3"/>
-        <v>0.92205304793187814</v>
+        <v>0.92205796579681398</v>
       </c>
       <c r="F231">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.5244092220394145E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.5241775872204166E-2</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
@@ -5881,11 +5881,11 @@
       </c>
       <c r="E232">
         <f t="shared" si="3"/>
-        <v>0.92205304793187814</v>
+        <v>0.92205796579681398</v>
       </c>
       <c r="F232">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.5244092220394145E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.5241775872204166E-2</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
@@ -5904,11 +5904,11 @@
       </c>
       <c r="E233">
         <f t="shared" si="3"/>
-        <v>0.99925847285528646</v>
+        <v>0.99925849696149727</v>
       </c>
       <c r="F233">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.221606073156839E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.2215013035252527E-4</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
@@ -5927,11 +5927,11 @@
       </c>
       <c r="E234">
         <f t="shared" si="3"/>
-        <v>0.9999880459269247</v>
+        <v>0.99998804594175805</v>
       </c>
       <c r="F234">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.1916190034311779E-6</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.1916125613091777E-6</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
@@ -5950,11 +5950,11 @@
       </c>
       <c r="E235">
         <f t="shared" si="3"/>
-        <v>0.99418725243786543</v>
+        <v>0.99418753086064682</v>
       </c>
       <c r="F235">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.5318097258723929E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.5316881014396074E-3</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
@@ -5973,11 +5973,11 @@
       </c>
       <c r="E236">
         <f t="shared" si="3"/>
-        <v>0.99975126176051454</v>
+        <v>0.99975126779088708</v>
       </c>
       <c r="F236">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.0803908212951323E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.0803646252040856E-4</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
@@ -5996,11 +5996,11 @@
       </c>
       <c r="E237">
         <f t="shared" si="3"/>
-        <v>0.89151461449553737</v>
+        <v>0.89152149945582981</v>
       </c>
       <c r="F237">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>4.9871533091268634E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-4.9868179148810879E-2</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
@@ -6019,11 +6019,11 @@
       </c>
       <c r="E238">
         <f t="shared" si="3"/>
-        <v>0.99990582312972431</v>
+        <v>0.99990582471994438</v>
       </c>
       <c r="F238">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>4.0902421144886653E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-4.0901730456040293E-5</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
@@ -6042,11 +6042,11 @@
       </c>
       <c r="E239">
         <f t="shared" si="3"/>
-        <v>0.57076349123803372</v>
+        <v>0.57078431418853559</v>
       </c>
       <c r="F239">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>0.24354381422058405</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-0.24352797030680676</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
@@ -6065,11 +6065,11 @@
       </c>
       <c r="E240">
         <f t="shared" si="3"/>
-        <v>0.99994867878050098</v>
+        <v>0.99994867941096321</v>
       </c>
       <c r="F240">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.2289094389616453E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.2288820569292748E-5</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
@@ -6088,11 +6088,11 @@
       </c>
       <c r="E241">
         <f t="shared" si="3"/>
-        <v>0.99484846061131249</v>
+        <v>0.99484870281052751</v>
       </c>
       <c r="F241">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.243067729123722E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.2429619986793739E-3</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
@@ -6111,11 +6111,11 @@
       </c>
       <c r="E242">
         <f t="shared" si="3"/>
-        <v>0.99998057122675388</v>
+        <v>0.99998057132238716</v>
       </c>
       <c r="F242">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>8.4378909801409209E-6</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-8.4378494463285835E-6</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
@@ -6134,11 +6134,11 @@
       </c>
       <c r="E243">
         <f t="shared" si="3"/>
-        <v>0.99484846061131249</v>
+        <v>0.99484870281052751</v>
       </c>
       <c r="F243">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.243067729123722E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.2429619986793739E-3</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
@@ -6157,11 +6157,11 @@
       </c>
       <c r="E244">
         <f t="shared" si="3"/>
-        <v>0.99998279268280144</v>
+        <v>0.99998279275166357</v>
       </c>
       <c r="F244">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>7.4731072039428405E-6</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-7.4730772969815853E-6</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
@@ -6180,11 +6180,11 @@
       </c>
       <c r="E245">
         <f t="shared" si="3"/>
-        <v>0.94452984546939955</v>
+        <v>0.94453328587025498</v>
       </c>
       <c r="F245">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.4784314589279269E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.4782732697089156E-2</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
@@ -6203,11 +6203,11 @@
       </c>
       <c r="E246">
         <f t="shared" si="3"/>
-        <v>0.99954362877881453</v>
+        <v>0.99954364193985445</v>
       </c>
       <c r="F246">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.9824474309961454E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.9823902472293427E-4</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
@@ -6226,11 +6226,11 @@
       </c>
       <c r="E247">
         <f t="shared" si="3"/>
-        <v>0.83488004230452828</v>
+        <v>0.83489036336514455</v>
       </c>
       <c r="F247">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>7.837592057356968E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-7.8370551716081399E-2</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
@@ -6249,11 +6249,11 @@
       </c>
       <c r="E248">
         <f t="shared" si="3"/>
-        <v>0.99990582312972431</v>
+        <v>0.99990582471994438</v>
       </c>
       <c r="F248">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>4.0902421144886653E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-4.0901730456040293E-5</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
@@ -6272,11 +6272,11 @@
       </c>
       <c r="E249">
         <f t="shared" si="3"/>
-        <v>0.99948474069587978</v>
+        <v>0.9994847560282577</v>
       </c>
       <c r="F249">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.2383194322778591E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.2382528102795018E-4</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E250">
         <f t="shared" si="3"/>
-        <v>0.98938440763034141</v>
+        <v>0.98938496197714942</v>
       </c>
       <c r="F250">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>4.6349382546978608E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-4.634694921883559E-3</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
@@ -6318,11 +6318,11 @@
       </c>
       <c r="E251">
         <f t="shared" si="3"/>
-        <v>0.99826688198369862</v>
+        <v>0.99826694941554894</v>
       </c>
       <c r="F251">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>7.5333659030518685E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-7.5330725418271257E-4</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
@@ -6341,11 +6341,11 @@
       </c>
       <c r="E252">
         <f t="shared" si="3"/>
-        <v>0.99993457297081823</v>
+        <v>0.99993457389497864</v>
       </c>
       <c r="F252">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.8415527322872405E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.8415125938842655E-5</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
@@ -6364,11 +6364,11 @@
       </c>
       <c r="E253">
         <f t="shared" si="3"/>
-        <v>0.99846474320683654</v>
+        <v>0.99846480154139206</v>
       </c>
       <c r="F253">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>6.6726589698956943E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-6.6724052366016681E-4</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
@@ -6387,11 +6387,11 @@
       </c>
       <c r="E254">
         <f t="shared" si="3"/>
-        <v>0.99999980742810779</v>
+        <v>0.99999980742232042</v>
       </c>
       <c r="F254">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>8.3632918209243382E-8</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-8.3635431632836218E-8</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
@@ -6410,11 +6410,11 @@
       </c>
       <c r="E255">
         <f t="shared" si="3"/>
-        <v>0.99260131600040191</v>
+        <v>0.99260168333977739</v>
       </c>
       <c r="F255">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.2251533464993185E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.2249926239295793E-3</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
@@ -6433,11 +6433,11 @@
       </c>
       <c r="E256">
         <f t="shared" si="3"/>
-        <v>0.99925847285528646</v>
+        <v>0.99925849696149727</v>
       </c>
       <c r="F256">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.221606073156839E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.2215013035252527E-4</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
@@ -6456,11 +6456,11 @@
       </c>
       <c r="E257">
         <f t="shared" si="3"/>
-        <v>0.99344173661955948</v>
+        <v>0.99344205651216566</v>
       </c>
       <c r="F257">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.8575983142131102E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.8574584695033726E-3</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
@@ -6479,11 +6479,11 @@
       </c>
       <c r="E258">
         <f t="shared" si="3"/>
-        <v>0.98803031771683714</v>
+        <v>0.9880309528030049</v>
       </c>
       <c r="F258">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.2297288788574333E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.229449723122428E-3</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
@@ -6502,11 +6502,11 @@
       </c>
       <c r="E259">
         <f t="shared" ref="E259:E275" si="4">1 / (1 + EXP(-1 * ($J$7*C259 + $J$8)))</f>
-        <v>0.14439973158188441</v>
+        <v>0.14441216607435714</v>
       </c>
       <c r="F259">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>0.84043361405595585</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-0.84039621787170349</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
@@ -6525,11 +6525,11 @@
       </c>
       <c r="E260">
         <f t="shared" si="4"/>
-        <v>0.99999599206436574</v>
+        <v>0.99999599203614009</v>
       </c>
       <c r="F260">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.7406278179490821E-6</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.7406400762396695E-6</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
@@ -6548,11 +6548,11 @@
       </c>
       <c r="E261">
         <f t="shared" si="4"/>
-        <v>0.54079516732253796</v>
+        <v>0.54081650304143469</v>
       </c>
       <c r="F261">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>0.26696719801045204</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-0.26695006434734658</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
@@ -6571,11 +6571,11 @@
       </c>
       <c r="E262">
         <f t="shared" si="4"/>
-        <v>0.99750714494061665</v>
+        <v>0.99750724872399787</v>
       </c>
       <c r="F262">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.0839848671086935E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.0839396819211367E-3</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
@@ -6594,11 +6594,11 @@
       </c>
       <c r="E263">
         <f t="shared" si="4"/>
-        <v>0.99986444179183409</v>
+        <v>0.99986444445493716</v>
       </c>
       <c r="F263">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.8876172447532244E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.8875015719761187E-5</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
@@ -6617,11 +6617,11 @@
       </c>
       <c r="E264">
         <f t="shared" si="4"/>
-        <v>0.99968291242560681</v>
+        <v>0.99968292069598208</v>
       </c>
       <c r="F264">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.3773122142270337E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.3772762850510414E-4</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
@@ -6640,11 +6640,11 @@
       </c>
       <c r="E265">
         <f t="shared" si="4"/>
-        <v>0.60022183048425226</v>
+        <v>0.60024200442786357</v>
       </c>
       <c r="F265">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>0.22168821303240371</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-0.22167361628715468</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
@@ -6663,11 +6663,11 @@
       </c>
       <c r="E266">
         <f t="shared" si="4"/>
-        <v>0.99995974355563289</v>
+        <v>0.99995974397607612</v>
       </c>
       <c r="F266">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.7483503563888716E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.7483320960360532E-5</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
@@ -6686,11 +6686,11 @@
       </c>
       <c r="E267">
         <f t="shared" si="4"/>
-        <v>0.97551250985555149</v>
+        <v>0.97551392455749419</v>
       </c>
       <c r="F267">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.0767156893348879E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.0766527073848314E-2</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
@@ -6709,11 +6709,11 @@
       </c>
       <c r="E268">
         <f t="shared" si="4"/>
-        <v>0.99999949130414378</v>
+        <v>0.99999949129260213</v>
       </c>
       <c r="F268">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>2.2092385951325767E-7</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-2.2092887199354594E-7</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
@@ -6732,11 +6732,11 @@
       </c>
       <c r="E269">
         <f t="shared" si="4"/>
-        <v>0.83488004230452828</v>
+        <v>0.83489036336514455</v>
       </c>
       <c r="F269">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>7.837592057356968E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-7.8370551716081399E-2</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
@@ -6755,11 +6755,11 @@
       </c>
       <c r="E270">
         <f t="shared" si="4"/>
-        <v>0.99893294920859554</v>
+        <v>0.99893298682892118</v>
       </c>
       <c r="F270">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>4.6366168992119367E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-4.6364533416925363E-4</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
@@ -6778,11 +6778,11 @@
       </c>
       <c r="E271">
         <f t="shared" si="4"/>
-        <v>0.99260131600040191</v>
+        <v>0.99260168333977739</v>
       </c>
       <c r="F271">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.2251533464993185E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.2249926239295793E-3</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
@@ -6801,11 +6801,11 @@
       </c>
       <c r="E272">
         <f t="shared" si="4"/>
-        <v>0.98803031771683714</v>
+        <v>0.9880309528030049</v>
       </c>
       <c r="F272">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>5.2297288788574333E-3</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-5.229449723122428E-3</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
@@ -6824,11 +6824,11 @@
       </c>
       <c r="E273">
         <f t="shared" si="4"/>
-        <v>0.99984694363352555</v>
+        <v>0.9998469467811798</v>
       </c>
       <c r="F273">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>6.6476622844972895E-5</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-6.64752556268426E-5</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
@@ -6847,11 +6847,11 @@
       </c>
       <c r="E274">
         <f t="shared" si="4"/>
-        <v>0.92205304793187814</v>
+        <v>0.92205796579681398</v>
       </c>
       <c r="F274">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>3.5244092220394145E-2</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-3.5241775872204166E-2</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
@@ -6870,11 +6870,11 @@
       </c>
       <c r="E275">
         <f t="shared" si="4"/>
-        <v>0.99971915817280588</v>
+        <v>0.99971916523967408</v>
       </c>
       <c r="F275">
-        <f>IF(Table1[[#This Row],[is_gentoo]],-LOG(Table1[[#This Row],[prediction_is_gentoo]]), -LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
-        <v>1.2198518591116695E-4</v>
+        <f>IF(Table1[[#This Row],[is_gentoo]],LOG(Table1[[#This Row],[prediction_is_gentoo]]), LOG(1-Table1[[#This Row],[prediction_is_gentoo]]))</f>
+        <v>-1.2198211594713914E-4</v>
       </c>
     </row>
   </sheetData>
